--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.1263123220464</v>
+        <v>838.6857280809867</v>
       </c>
       <c r="AB2" t="n">
-        <v>990.7815667172747</v>
+        <v>1147.526813363386</v>
       </c>
       <c r="AC2" t="n">
-        <v>896.2227645604398</v>
+        <v>1038.008464859982</v>
       </c>
       <c r="AD2" t="n">
-        <v>724126.3123220464</v>
+        <v>838685.7280809866</v>
       </c>
       <c r="AE2" t="n">
-        <v>990781.5667172747</v>
+        <v>1147526.813363386</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.778507894480565e-07</v>
+        <v>1.484050315183229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.08159722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>896222.7645604399</v>
+        <v>1038008.464859982</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>520.1165779897949</v>
+        <v>613.7616844850016</v>
       </c>
       <c r="AB3" t="n">
-        <v>711.646447929617</v>
+        <v>839.7758139668829</v>
       </c>
       <c r="AC3" t="n">
-        <v>643.7279097412763</v>
+        <v>759.6287889146402</v>
       </c>
       <c r="AD3" t="n">
-        <v>520116.5779897949</v>
+        <v>613761.6844850016</v>
       </c>
       <c r="AE3" t="n">
-        <v>711646.447929617</v>
+        <v>839775.8139668829</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.122493138997502e-06</v>
+        <v>1.897630345320575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>643727.9097412763</v>
+        <v>759628.7889146402</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>456.1356545181085</v>
+        <v>549.7806715047643</v>
       </c>
       <c r="AB4" t="n">
-        <v>624.1049257965242</v>
+        <v>752.2341693642417</v>
       </c>
       <c r="AC4" t="n">
-        <v>564.5412276152679</v>
+        <v>680.4419960074052</v>
       </c>
       <c r="AD4" t="n">
-        <v>456135.6545181085</v>
+        <v>549780.6715047644</v>
       </c>
       <c r="AE4" t="n">
-        <v>624104.9257965242</v>
+        <v>752234.1693642417</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.220667523331531e-06</v>
+        <v>2.063599013077246e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>564541.2276152679</v>
+        <v>680441.9960074052</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>423.2516974819446</v>
+        <v>516.8113736140288</v>
       </c>
       <c r="AB5" t="n">
-        <v>579.1116450418483</v>
+        <v>707.124121487368</v>
       </c>
       <c r="AC5" t="n">
-        <v>523.842042427352</v>
+        <v>639.6371877875506</v>
       </c>
       <c r="AD5" t="n">
-        <v>423251.6974819446</v>
+        <v>516811.3736140288</v>
       </c>
       <c r="AE5" t="n">
-        <v>579111.6450418483</v>
+        <v>707124.121487368</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271178547510999e-06</v>
+        <v>2.148990405617769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>523842.042427352</v>
+        <v>639637.1877875506</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>409.089722212938</v>
+        <v>492.4055958495845</v>
       </c>
       <c r="AB6" t="n">
-        <v>559.7346056965393</v>
+        <v>673.7310596431306</v>
       </c>
       <c r="AC6" t="n">
-        <v>506.3143205213139</v>
+        <v>609.4311128982706</v>
       </c>
       <c r="AD6" t="n">
-        <v>409089.722212938</v>
+        <v>492405.5958495846</v>
       </c>
       <c r="AE6" t="n">
-        <v>559734.6056965394</v>
+        <v>673731.0596431306</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.304696953574638e-06</v>
+        <v>2.205654934124327e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.52951388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>506314.3205213139</v>
+        <v>609431.1128982706</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>397.4851913389519</v>
+        <v>480.6304727750063</v>
       </c>
       <c r="AB7" t="n">
-        <v>543.8567745989815</v>
+        <v>657.6198167707258</v>
       </c>
       <c r="AC7" t="n">
-        <v>491.9518473390312</v>
+        <v>594.8575044333367</v>
       </c>
       <c r="AD7" t="n">
-        <v>397485.1913389519</v>
+        <v>480630.4727750063</v>
       </c>
       <c r="AE7" t="n">
-        <v>543856.7745989815</v>
+        <v>657619.8167707259</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.326031092253027e-06</v>
+        <v>2.241721354079057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>491951.8473390312</v>
+        <v>594857.5044333367</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>385.8591464415902</v>
+        <v>458.7606253822069</v>
       </c>
       <c r="AB8" t="n">
-        <v>527.9495070655094</v>
+        <v>627.6965267383251</v>
       </c>
       <c r="AC8" t="n">
-        <v>477.5627470929633</v>
+        <v>567.7900512040269</v>
       </c>
       <c r="AD8" t="n">
-        <v>385859.1464415902</v>
+        <v>458760.6253822069</v>
       </c>
       <c r="AE8" t="n">
-        <v>527949.5070655093</v>
+        <v>627696.5267383251</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.338985629415506e-06</v>
+        <v>2.263621641907149e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>477562.7470929633</v>
+        <v>567790.0512040269</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>367.7449424234822</v>
+        <v>450.9754752055572</v>
       </c>
       <c r="AB9" t="n">
-        <v>503.1648539856535</v>
+        <v>617.044540810047</v>
       </c>
       <c r="AC9" t="n">
-        <v>455.1435065175698</v>
+        <v>558.1546758625876</v>
       </c>
       <c r="AD9" t="n">
-        <v>367744.9424234822</v>
+        <v>450975.4752055572</v>
       </c>
       <c r="AE9" t="n">
-        <v>503164.8539856535</v>
+        <v>617044.5408100471</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.351986849594787e-06</v>
+        <v>2.285600849691378e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.98263888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>455143.5065175698</v>
+        <v>558154.6758625876</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>366.9875128839467</v>
+        <v>450.2180456660217</v>
       </c>
       <c r="AB10" t="n">
-        <v>502.1285054742281</v>
+        <v>616.0081922986217</v>
       </c>
       <c r="AC10" t="n">
-        <v>454.2060656535506</v>
+        <v>557.2172349985684</v>
       </c>
       <c r="AD10" t="n">
-        <v>366987.5128839468</v>
+        <v>450218.0456660218</v>
       </c>
       <c r="AE10" t="n">
-        <v>502128.5054742281</v>
+        <v>616008.1922986216</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.351963508086386e-06</v>
+        <v>2.285561389713309e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.98263888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>454206.0656535506</v>
+        <v>557217.2349985684</v>
       </c>
     </row>
     <row r="11">
@@ -4056,28 +4056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>367.7223767662847</v>
+        <v>450.9529095483597</v>
       </c>
       <c r="AB11" t="n">
-        <v>503.1339786579493</v>
+        <v>617.013665482343</v>
       </c>
       <c r="AC11" t="n">
-        <v>455.1155778878079</v>
+        <v>558.1267472328259</v>
       </c>
       <c r="AD11" t="n">
-        <v>367722.3767662847</v>
+        <v>450952.9095483597</v>
       </c>
       <c r="AE11" t="n">
-        <v>503133.9786579493</v>
+        <v>617013.6654823429</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.351706751493976e-06</v>
+        <v>2.285127329954554e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.99131944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>455115.577887808</v>
+        <v>558126.7472328258</v>
       </c>
     </row>
   </sheetData>
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.9385745562223</v>
+        <v>685.8494799841122</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.6563222075971</v>
+        <v>938.4095160578496</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.5789468951858</v>
+        <v>848.8490289113155</v>
       </c>
       <c r="AD2" t="n">
-        <v>574938.5745562223</v>
+        <v>685849.4799841122</v>
       </c>
       <c r="AE2" t="n">
-        <v>786656.3222075971</v>
+        <v>938409.5160578496</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.01383757866613e-06</v>
+        <v>1.755754801782439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>711578.9468951859</v>
+        <v>848849.0289113155</v>
       </c>
     </row>
     <row r="3">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.6953378807567</v>
+        <v>521.4251076209263</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.2963622257407</v>
+        <v>713.4368358991841</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.0547444975541</v>
+        <v>645.3474255958532</v>
       </c>
       <c r="AD3" t="n">
-        <v>430695.3378807566</v>
+        <v>521425.1076209263</v>
       </c>
       <c r="AE3" t="n">
-        <v>589296.3622257407</v>
+        <v>713436.8358991841</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.241442147139871e-06</v>
+        <v>2.149918346727333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.88368055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>533054.7444975541</v>
+        <v>645347.4255958532</v>
       </c>
     </row>
     <row r="4">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.9488483287431</v>
+        <v>480.593277214341</v>
       </c>
       <c r="AB4" t="n">
-        <v>533.5452176124254</v>
+        <v>657.5689241636712</v>
       </c>
       <c r="AC4" t="n">
-        <v>482.6244108789108</v>
+        <v>594.8114689452711</v>
       </c>
       <c r="AD4" t="n">
-        <v>389948.8483287431</v>
+        <v>480593.277214341</v>
       </c>
       <c r="AE4" t="n">
-        <v>533545.2176124254</v>
+        <v>657568.9241636712</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.321898164767126e-06</v>
+        <v>2.289251354552114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>482624.4108789108</v>
+        <v>594811.4689452711</v>
       </c>
     </row>
     <row r="5">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>370.6597240678298</v>
+        <v>451.2136746181186</v>
       </c>
       <c r="AB5" t="n">
-        <v>507.1529868225404</v>
+        <v>617.3704557549299</v>
       </c>
       <c r="AC5" t="n">
-        <v>458.7510175538839</v>
+        <v>558.4494859425554</v>
       </c>
       <c r="AD5" t="n">
-        <v>370659.7240678298</v>
+        <v>451213.6746181186</v>
       </c>
       <c r="AE5" t="n">
-        <v>507152.9868225404</v>
+        <v>617370.4557549299</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.369925481411967e-06</v>
+        <v>2.372424629631193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.30381944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>458751.0175538838</v>
+        <v>558449.4859425554</v>
       </c>
     </row>
     <row r="6">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.1292762147049</v>
+        <v>426.7684781110144</v>
       </c>
       <c r="AB6" t="n">
-        <v>473.589345862914</v>
+        <v>583.923459447953</v>
       </c>
       <c r="AC6" t="n">
-        <v>428.3906433805783</v>
+        <v>528.194624019962</v>
       </c>
       <c r="AD6" t="n">
-        <v>346129.2762147048</v>
+        <v>426768.4781110144</v>
       </c>
       <c r="AE6" t="n">
-        <v>473589.345862914</v>
+        <v>583923.4594479529</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39762147547513e-06</v>
+        <v>2.420388303093085e-06</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>428390.6433805783</v>
+        <v>528194.624019962</v>
       </c>
     </row>
     <row r="7">
@@ -4883,28 +4883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>338.5526143002868</v>
+        <v>419.1918161965964</v>
       </c>
       <c r="AB7" t="n">
-        <v>463.2226227728744</v>
+        <v>573.5567363579133</v>
       </c>
       <c r="AC7" t="n">
-        <v>419.0133057924648</v>
+        <v>518.8172864318486</v>
       </c>
       <c r="AD7" t="n">
-        <v>338552.6143002869</v>
+        <v>419191.8161965964</v>
       </c>
       <c r="AE7" t="n">
-        <v>463222.6227728744</v>
+        <v>573556.7363579134</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.409235924598392e-06</v>
+        <v>2.44050210164162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>419013.3057924649</v>
+        <v>518817.2864318487</v>
       </c>
     </row>
     <row r="8">
@@ -4989,28 +4989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>338.8196885883999</v>
+        <v>419.4588904847093</v>
       </c>
       <c r="AB8" t="n">
-        <v>463.5880455963566</v>
+        <v>573.9221591813955</v>
       </c>
       <c r="AC8" t="n">
-        <v>419.3438531745481</v>
+        <v>519.1478338139318</v>
       </c>
       <c r="AD8" t="n">
-        <v>338819.6885883999</v>
+        <v>419458.8904847093</v>
       </c>
       <c r="AE8" t="n">
-        <v>463588.0455963566</v>
+        <v>573922.1591813955</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.409332510453887e-06</v>
+        <v>2.440669368157616e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>419343.8531745481</v>
+        <v>519147.8338139318</v>
       </c>
     </row>
   </sheetData>
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.0431048360483</v>
+        <v>392.8807783917507</v>
       </c>
       <c r="AB2" t="n">
-        <v>437.8970953419771</v>
+        <v>537.5568136722579</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.1048111549713</v>
+        <v>486.2531458411034</v>
       </c>
       <c r="AD2" t="n">
-        <v>320043.1048360483</v>
+        <v>392880.7783917506</v>
       </c>
       <c r="AE2" t="n">
-        <v>437897.0953419771</v>
+        <v>537556.8136722579</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.439776168524016e-06</v>
+        <v>2.724366335877351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.24131944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>396104.8111549714</v>
+        <v>486253.1458411034</v>
       </c>
     </row>
     <row r="3">
@@ -5392,28 +5392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.3014815548897</v>
+        <v>343.139065602041</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.838411923153</v>
+        <v>469.4980077838854</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.5415529606777</v>
+        <v>424.6897768655832</v>
       </c>
       <c r="AD3" t="n">
-        <v>270301.4815548897</v>
+        <v>343139.065602041</v>
       </c>
       <c r="AE3" t="n">
-        <v>369838.411923153</v>
+        <v>469498.0077838854</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.562532741317552e-06</v>
+        <v>2.956648187555194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>334541.5529606777</v>
+        <v>424689.7768655831</v>
       </c>
     </row>
     <row r="4">
@@ -5498,28 +5498,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.4647323585172</v>
+        <v>343.3023164056684</v>
       </c>
       <c r="AB4" t="n">
-        <v>370.0617788747932</v>
+        <v>469.7213747355256</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.7436020839508</v>
+        <v>424.8918259888563</v>
       </c>
       <c r="AD4" t="n">
-        <v>270464.7323585171</v>
+        <v>343302.3164056684</v>
       </c>
       <c r="AE4" t="n">
-        <v>370061.7788747932</v>
+        <v>469721.3747355256</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563017732167044e-06</v>
+        <v>2.957565894607477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>334743.6020839508</v>
+        <v>424891.8259888563</v>
       </c>
     </row>
   </sheetData>
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.4915368821015</v>
+        <v>483.9612138928536</v>
       </c>
       <c r="AB2" t="n">
-        <v>545.2337009679508</v>
+        <v>662.1770837100919</v>
       </c>
       <c r="AC2" t="n">
-        <v>493.1973617878742</v>
+        <v>598.9798322121741</v>
       </c>
       <c r="AD2" t="n">
-        <v>398491.5368821014</v>
+        <v>483961.2138928536</v>
       </c>
       <c r="AE2" t="n">
-        <v>545233.7009679507</v>
+        <v>662177.0837100919</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.268895268872291e-06</v>
+        <v>2.311651607834361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>493197.3617878743</v>
+        <v>598979.8322121741</v>
       </c>
     </row>
     <row r="3">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.4442717943668</v>
+        <v>401.2467258255542</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.2872102570175</v>
+        <v>549.0034720307405</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.7896238746117</v>
+        <v>496.6073511913383</v>
       </c>
       <c r="AD3" t="n">
-        <v>325444.2717943668</v>
+        <v>401246.7258255542</v>
       </c>
       <c r="AE3" t="n">
-        <v>445287.2102570175</v>
+        <v>549003.4720307405</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.449175471007152e-06</v>
+        <v>2.640082983810827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>402789.6238746117</v>
+        <v>496607.3511913383</v>
       </c>
     </row>
     <row r="4">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.8713770338111</v>
+        <v>370.7590824110191</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.4560268647005</v>
+        <v>507.2889332910727</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.9507499148228</v>
+        <v>458.8739894822616</v>
       </c>
       <c r="AD4" t="n">
-        <v>294871.3770338111</v>
+        <v>370759.0824110191</v>
       </c>
       <c r="AE4" t="n">
-        <v>403456.0268647005</v>
+        <v>507288.9332910727</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50933760880852e-06</v>
+        <v>2.749685333185874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>364950.7499148228</v>
+        <v>458873.9894822616</v>
       </c>
     </row>
     <row r="5">
@@ -6113,28 +6113,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>295.5741992762779</v>
+        <v>371.461904653486</v>
       </c>
       <c r="AB5" t="n">
-        <v>404.4176592631727</v>
+        <v>508.250565689545</v>
       </c>
       <c r="AC5" t="n">
-        <v>365.8206054668444</v>
+        <v>459.7438450342833</v>
       </c>
       <c r="AD5" t="n">
-        <v>295574.1992762779</v>
+        <v>371461.904653486</v>
       </c>
       <c r="AE5" t="n">
-        <v>404417.6592631727</v>
+        <v>508250.565689545</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505651582370818e-06</v>
+        <v>2.742970193528362e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>365820.6054668444</v>
+        <v>459743.8450342832</v>
       </c>
     </row>
   </sheetData>
@@ -6410,28 +6410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.3813220370171</v>
+        <v>334.6319295729634</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.7381884917949</v>
+        <v>457.8581689605479</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.2144034848733</v>
+        <v>414.1608279229285</v>
       </c>
       <c r="AD2" t="n">
-        <v>264381.3220370171</v>
+        <v>334631.9295729634</v>
       </c>
       <c r="AE2" t="n">
-        <v>361738.1884917949</v>
+        <v>457858.1689605478</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.57225546186628e-06</v>
+        <v>3.081114123812801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>327214.4034848734</v>
+        <v>414160.8279229286</v>
       </c>
     </row>
     <row r="3">
@@ -6516,28 +6516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.6236650359619</v>
+        <v>330.8742725719083</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.5967964068241</v>
+        <v>452.7167768755771</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.5636986445031</v>
+        <v>409.5101230825583</v>
       </c>
       <c r="AD3" t="n">
-        <v>260623.6650359619</v>
+        <v>330874.2725719083</v>
       </c>
       <c r="AE3" t="n">
-        <v>356596.7964068241</v>
+        <v>452716.7768755771</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.59343900524321e-06</v>
+        <v>3.122627043484e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.24305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>322563.6986445031</v>
+        <v>409510.1230825583</v>
       </c>
     </row>
   </sheetData>
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>613.3513644883351</v>
+        <v>725.1135436779198</v>
       </c>
       <c r="AB2" t="n">
-        <v>839.2143960454026</v>
+        <v>992.1323402119541</v>
       </c>
       <c r="AC2" t="n">
-        <v>759.1209519316313</v>
+        <v>897.4446221286095</v>
       </c>
       <c r="AD2" t="n">
-        <v>613351.3644883351</v>
+        <v>725113.5436779198</v>
       </c>
       <c r="AE2" t="n">
-        <v>839214.3960454026</v>
+        <v>992132.3402119541</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.771156385982739e-07</v>
+        <v>1.681109093556824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.25868055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>759120.9519316313</v>
+        <v>897444.6221286095</v>
       </c>
     </row>
     <row r="3">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.1741046310348</v>
+        <v>549.5848708405874</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.894023171102</v>
+        <v>751.9662662573992</v>
       </c>
       <c r="AC3" t="n">
-        <v>567.0641374509388</v>
+        <v>680.1996611970754</v>
       </c>
       <c r="AD3" t="n">
-        <v>458174.1046310348</v>
+        <v>549584.8708405874</v>
       </c>
       <c r="AE3" t="n">
-        <v>626894.023171102</v>
+        <v>751966.2662573992</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.208945195739314e-06</v>
+        <v>2.079967489912186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.17881944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>567064.1374509388</v>
+        <v>680199.6611970754</v>
       </c>
     </row>
     <row r="4">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.8976238839917</v>
+        <v>495.2180244580999</v>
       </c>
       <c r="AB4" t="n">
-        <v>566.3129888725269</v>
+        <v>677.5791485408945</v>
       </c>
       <c r="AC4" t="n">
-        <v>512.264872039804</v>
+        <v>612.9119455924586</v>
       </c>
       <c r="AD4" t="n">
-        <v>413897.6238839917</v>
+        <v>495218.0244580999</v>
       </c>
       <c r="AE4" t="n">
-        <v>566312.9888725269</v>
+        <v>677579.1485408945</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.295905209225125e-06</v>
+        <v>2.229580558900149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.03298611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>512264.872039804</v>
+        <v>612911.9455924586</v>
       </c>
     </row>
     <row r="5">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.4311204096649</v>
+        <v>466.6661801292014</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.3638629654534</v>
+        <v>638.5132555116235</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.0329960438601</v>
+        <v>577.5744465645759</v>
       </c>
       <c r="AD5" t="n">
-        <v>385431.1204096649</v>
+        <v>466666.1801292014</v>
       </c>
       <c r="AE5" t="n">
-        <v>527363.8629654534</v>
+        <v>638513.2555116235</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.342184974244816e-06</v>
+        <v>2.309204024894294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.47743055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>477032.9960438601</v>
+        <v>577574.4465645759</v>
       </c>
     </row>
     <row r="6">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>370.3505827730982</v>
+        <v>441.5806177117618</v>
       </c>
       <c r="AB6" t="n">
-        <v>506.7300060647371</v>
+        <v>604.1900823151755</v>
       </c>
       <c r="AC6" t="n">
-        <v>458.3684054859481</v>
+        <v>546.5270288451206</v>
       </c>
       <c r="AD6" t="n">
-        <v>370350.5827730981</v>
+        <v>441580.6177117617</v>
       </c>
       <c r="AE6" t="n">
-        <v>506730.0060647371</v>
+        <v>604190.0823151754</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370206486570596e-06</v>
+        <v>2.357414510250624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>458368.4054859481</v>
+        <v>546527.0288451207</v>
       </c>
     </row>
     <row r="7">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>346.8701398370176</v>
+        <v>428.1904509025747</v>
       </c>
       <c r="AB7" t="n">
-        <v>474.6030281555585</v>
+        <v>585.869065354378</v>
       </c>
       <c r="AC7" t="n">
-        <v>429.3075812579249</v>
+        <v>529.954544029353</v>
       </c>
       <c r="AD7" t="n">
-        <v>346870.1398370176</v>
+        <v>428190.4509025747</v>
       </c>
       <c r="AE7" t="n">
-        <v>474603.0281555586</v>
+        <v>585869.065354378</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391503793120506e-06</v>
+        <v>2.394056125935624e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.93055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>429307.5812579249</v>
+        <v>529954.544029353</v>
       </c>
     </row>
     <row r="8">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>344.7232323806578</v>
+        <v>426.0435434462149</v>
       </c>
       <c r="AB8" t="n">
-        <v>471.6655346588947</v>
+        <v>582.9315718577141</v>
       </c>
       <c r="AC8" t="n">
-        <v>426.6504380177846</v>
+        <v>527.2974007892127</v>
       </c>
       <c r="AD8" t="n">
-        <v>344723.2323806578</v>
+        <v>426043.5434462149</v>
       </c>
       <c r="AE8" t="n">
-        <v>471665.5346588947</v>
+        <v>582931.5718577141</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.394901790345323e-06</v>
+        <v>2.399902316303342e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>426650.4380177846</v>
+        <v>527297.4007892127</v>
       </c>
     </row>
     <row r="9">
@@ -7555,28 +7555,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>345.6651602794066</v>
+        <v>426.9854713449637</v>
       </c>
       <c r="AB9" t="n">
-        <v>472.9543219648889</v>
+        <v>584.2203591637083</v>
       </c>
       <c r="AC9" t="n">
-        <v>427.8162252721191</v>
+        <v>528.4631880435471</v>
       </c>
       <c r="AD9" t="n">
-        <v>345665.1602794066</v>
+        <v>426985.4713449637</v>
       </c>
       <c r="AE9" t="n">
-        <v>472954.3219648889</v>
+        <v>584220.3591637083</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.394566776534426e-06</v>
+        <v>2.399325931337511e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>427816.2252721192</v>
+        <v>528463.1880435471</v>
       </c>
     </row>
   </sheetData>
@@ -7852,28 +7852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.6554737079578</v>
+        <v>317.5952775713311</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.2213890323514</v>
+        <v>434.5478700878739</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.7511371669236</v>
+        <v>393.0752312584525</v>
       </c>
       <c r="AD2" t="n">
-        <v>248655.4737079578</v>
+        <v>317595.2775713311</v>
       </c>
       <c r="AE2" t="n">
-        <v>340221.3890323514</v>
+        <v>434547.8700878739</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.602860498319518e-06</v>
+        <v>3.213190930208295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.51215277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>307751.1371669236</v>
+        <v>393075.2312584525</v>
       </c>
     </row>
   </sheetData>
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.434955908927</v>
+        <v>576.7633111163125</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.2982549040518</v>
+        <v>789.1530072708081</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.5168074185001</v>
+        <v>713.8373518400834</v>
       </c>
       <c r="AD2" t="n">
-        <v>488434.955908927</v>
+        <v>576763.3111163125</v>
       </c>
       <c r="AE2" t="n">
-        <v>668298.2549040518</v>
+        <v>789153.0072708081</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.13126788144519e-06</v>
+        <v>2.003559479048626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>604516.8074185001</v>
+        <v>713837.3518400835</v>
       </c>
     </row>
     <row r="3">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.2637563326657</v>
+        <v>462.6925189411647</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.7666239348346</v>
+        <v>633.0763169685923</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.5881952645845</v>
+        <v>572.6564018053004</v>
       </c>
       <c r="AD3" t="n">
-        <v>384263.7563326657</v>
+        <v>462692.5189411647</v>
       </c>
       <c r="AE3" t="n">
-        <v>525766.6239348346</v>
+        <v>633076.3169685923</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.334324893416417e-06</v>
+        <v>2.363188535786726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>475588.1952645845</v>
+        <v>572656.4018053005</v>
       </c>
     </row>
     <row r="4">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>346.67156510809</v>
+        <v>425.0149868620173</v>
       </c>
       <c r="AB4" t="n">
-        <v>474.3313294509409</v>
+        <v>581.524255362501</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.0618130963445</v>
+        <v>526.0243966051216</v>
       </c>
       <c r="AD4" t="n">
-        <v>346671.56510809</v>
+        <v>425014.9868620173</v>
       </c>
       <c r="AE4" t="n">
-        <v>474331.3294509409</v>
+        <v>581524.255362501</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413562406664194e-06</v>
+        <v>2.503524059642502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>429061.8130963445</v>
+        <v>526024.3966051217</v>
       </c>
     </row>
     <row r="5">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.7555211868587</v>
+        <v>400.1841942868068</v>
       </c>
       <c r="AB5" t="n">
-        <v>440.2400989396335</v>
+        <v>547.5496695038429</v>
       </c>
       <c r="AC5" t="n">
-        <v>398.2242017776936</v>
+        <v>495.2922975371831</v>
       </c>
       <c r="AD5" t="n">
-        <v>321755.5211868587</v>
+        <v>400184.1942868067</v>
       </c>
       <c r="AE5" t="n">
-        <v>440240.0989396335</v>
+        <v>547549.6695038429</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.448118421075863e-06</v>
+        <v>2.56472532891587e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.91319444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>398224.2017776936</v>
+        <v>495292.2975371831</v>
       </c>
     </row>
     <row r="6">
@@ -8573,28 +8573,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>317.2422912989916</v>
+        <v>395.6709643989396</v>
       </c>
       <c r="AB6" t="n">
-        <v>434.0648986974035</v>
+        <v>541.3744692616128</v>
       </c>
       <c r="AC6" t="n">
-        <v>392.6383539796341</v>
+        <v>489.7064497391236</v>
       </c>
       <c r="AD6" t="n">
-        <v>317242.2912989916</v>
+        <v>395670.9643989396</v>
       </c>
       <c r="AE6" t="n">
-        <v>434064.8986974035</v>
+        <v>541374.4692616129</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455333139707528e-06</v>
+        <v>2.577503131715925e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.83506944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>392638.3539796341</v>
+        <v>489706.4497391236</v>
       </c>
     </row>
   </sheetData>
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.4222254294534</v>
+        <v>649.3588910216891</v>
       </c>
       <c r="AB2" t="n">
-        <v>751.7437276304764</v>
+        <v>888.4814823882953</v>
       </c>
       <c r="AC2" t="n">
-        <v>679.9983613443712</v>
+        <v>803.6860567007479</v>
       </c>
       <c r="AD2" t="n">
-        <v>549422.2254294534</v>
+        <v>649358.8910216892</v>
       </c>
       <c r="AE2" t="n">
-        <v>751743.7276304765</v>
+        <v>888481.4823882952</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.049744551064759e-06</v>
+        <v>1.830662834197962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>679998.3613443712</v>
+        <v>803686.0567007479</v>
       </c>
     </row>
     <row r="3">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.2961377146389</v>
+        <v>506.230522104498</v>
       </c>
       <c r="AB3" t="n">
-        <v>569.5947413105805</v>
+        <v>692.6469336578042</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.2334186311383</v>
+        <v>626.5416824455795</v>
       </c>
       <c r="AD3" t="n">
-        <v>416296.1377146389</v>
+        <v>506230.522104498</v>
       </c>
       <c r="AE3" t="n">
-        <v>569594.7413105805</v>
+        <v>692646.9336578042</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.267834984093353e-06</v>
+        <v>2.21099350591674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>515233.4186311383</v>
+        <v>626541.6824455794</v>
       </c>
     </row>
     <row r="4">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.104938257337</v>
+        <v>456.1224718079421</v>
       </c>
       <c r="AB4" t="n">
-        <v>514.6033691025198</v>
+        <v>624.0868886308942</v>
       </c>
       <c r="AC4" t="n">
-        <v>465.4903458057393</v>
+        <v>564.5249118914106</v>
       </c>
       <c r="AD4" t="n">
-        <v>376104.938257337</v>
+        <v>456122.4718079421</v>
       </c>
       <c r="AE4" t="n">
-        <v>514603.3691025198</v>
+        <v>624086.8886308942</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.351395284129345e-06</v>
+        <v>2.356715372760594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.65972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>465490.3458057393</v>
+        <v>564524.9118914106</v>
       </c>
     </row>
     <row r="5">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>358.1267091372011</v>
+        <v>437.973650487214</v>
       </c>
       <c r="AB5" t="n">
-        <v>490.0047628768585</v>
+        <v>599.2548706303858</v>
       </c>
       <c r="AC5" t="n">
-        <v>443.2393960338943</v>
+        <v>542.0628268369143</v>
       </c>
       <c r="AD5" t="n">
-        <v>358126.7091372011</v>
+        <v>437973.650487214</v>
       </c>
       <c r="AE5" t="n">
-        <v>490004.7628768585</v>
+        <v>599254.8706303858</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.393931084468553e-06</v>
+        <v>2.430894094359931e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>443239.3960338943</v>
+        <v>542062.8268369143</v>
       </c>
     </row>
     <row r="6">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.7419449840665</v>
+        <v>412.6741376801</v>
       </c>
       <c r="AB6" t="n">
-        <v>455.2722086657837</v>
+        <v>564.6389610719605</v>
       </c>
       <c r="AC6" t="n">
-        <v>411.8216680492786</v>
+        <v>510.7506111030108</v>
       </c>
       <c r="AD6" t="n">
-        <v>332741.9449840665</v>
+        <v>412674.1376801</v>
       </c>
       <c r="AE6" t="n">
-        <v>455272.2086657837</v>
+        <v>564638.9610719605</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.421841394719782e-06</v>
+        <v>2.479567238331989e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.87847222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>411821.6680492786</v>
+        <v>510750.6111030108</v>
       </c>
     </row>
     <row r="7">
@@ -9400,28 +9400,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>331.2083014325602</v>
+        <v>411.1404941285938</v>
       </c>
       <c r="AB7" t="n">
-        <v>453.1738098990346</v>
+        <v>562.5405623052113</v>
       </c>
       <c r="AC7" t="n">
-        <v>409.9235375157068</v>
+        <v>508.8524805694391</v>
       </c>
       <c r="AD7" t="n">
-        <v>331208.3014325603</v>
+        <v>411140.4941285938</v>
       </c>
       <c r="AE7" t="n">
-        <v>453173.8098990346</v>
+        <v>562540.5623052113</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425107754172764e-06</v>
+        <v>2.485263484002081e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>409923.5375157067</v>
+        <v>508852.4805694391</v>
       </c>
     </row>
   </sheetData>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>680.7050816476421</v>
+        <v>794.3315088639646</v>
       </c>
       <c r="AB2" t="n">
-        <v>931.3707232990545</v>
+        <v>1086.839413860607</v>
       </c>
       <c r="AC2" t="n">
-        <v>842.4820086544121</v>
+        <v>983.1129855904472</v>
       </c>
       <c r="AD2" t="n">
-        <v>680705.0816476422</v>
+        <v>794331.5088639646</v>
       </c>
       <c r="AE2" t="n">
-        <v>931370.7232990544</v>
+        <v>1086839.413860606</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.111963054539136e-07</v>
+        <v>1.548973328480184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.41319444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>842482.0086544121</v>
+        <v>983112.9855904472</v>
       </c>
     </row>
     <row r="3">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.9576736126671</v>
+        <v>584.9945015273113</v>
       </c>
       <c r="AB3" t="n">
-        <v>673.1181926776458</v>
+        <v>800.4152851256287</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.8767370958074</v>
+        <v>724.0247737031463</v>
       </c>
       <c r="AD3" t="n">
-        <v>491957.6736126671</v>
+        <v>584994.5015273113</v>
       </c>
       <c r="AE3" t="n">
-        <v>673118.1926776457</v>
+        <v>800415.2851256287</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.150594735736747e-06</v>
+        <v>1.95593479349996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.75173611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>608876.7370958073</v>
+        <v>724024.7737031463</v>
       </c>
     </row>
     <row r="4">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>442.2231184309718</v>
+        <v>524.8372696757461</v>
       </c>
       <c r="AB4" t="n">
-        <v>605.0691801443297</v>
+        <v>718.1055065565544</v>
       </c>
       <c r="AC4" t="n">
-        <v>547.3222268112821</v>
+        <v>649.5705248782043</v>
       </c>
       <c r="AD4" t="n">
-        <v>442223.1184309718</v>
+        <v>524837.2696757461</v>
       </c>
       <c r="AE4" t="n">
-        <v>605069.1801443297</v>
+        <v>718105.5065565543</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244518915951889e-06</v>
+        <v>2.115599674911159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.41493055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>547322.2268112821</v>
+        <v>649570.5248782043</v>
       </c>
     </row>
     <row r="5">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.4443287744733</v>
+        <v>494.1437313652682</v>
       </c>
       <c r="AB5" t="n">
-        <v>562.9562822719421</v>
+        <v>676.1092533368161</v>
       </c>
       <c r="AC5" t="n">
-        <v>509.2285248060118</v>
+        <v>611.5823351236464</v>
       </c>
       <c r="AD5" t="n">
-        <v>411444.3287744733</v>
+        <v>494143.7313652682</v>
       </c>
       <c r="AE5" t="n">
-        <v>562956.2822719421</v>
+        <v>676109.2533368161</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.292280961502174e-06</v>
+        <v>2.196791986851222e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>509228.5248060118</v>
+        <v>611582.3351236464</v>
       </c>
     </row>
     <row r="6">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>396.2725030859388</v>
+        <v>478.8013134761414</v>
       </c>
       <c r="AB6" t="n">
-        <v>542.197521031179</v>
+        <v>655.1170803212058</v>
       </c>
       <c r="AC6" t="n">
-        <v>490.4509506029626</v>
+        <v>592.5936256379462</v>
       </c>
       <c r="AD6" t="n">
-        <v>396272.5030859387</v>
+        <v>478801.3134761414</v>
       </c>
       <c r="AE6" t="n">
-        <v>542197.521031179</v>
+        <v>655117.0803212058</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.325855561994912e-06</v>
+        <v>2.253866582485937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.40798611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>490450.9506029626</v>
+        <v>592593.6256379462</v>
       </c>
     </row>
     <row r="7">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>383.6399300287598</v>
+        <v>456.0019968042564</v>
       </c>
       <c r="AB7" t="n">
-        <v>524.9130772645566</v>
+        <v>623.9220494158695</v>
       </c>
       <c r="AC7" t="n">
-        <v>474.8161098905575</v>
+        <v>564.3758046997143</v>
       </c>
       <c r="AD7" t="n">
-        <v>383639.9300287598</v>
+        <v>456001.9968042563</v>
       </c>
       <c r="AE7" t="n">
-        <v>524913.0772645565</v>
+        <v>623922.0494158695</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.348466067302214e-06</v>
+        <v>2.292302942965937e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.14756944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>474816.1098905575</v>
+        <v>564375.8046997143</v>
       </c>
     </row>
     <row r="8">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>373.1653617001973</v>
+        <v>445.5274284756939</v>
       </c>
       <c r="AB8" t="n">
-        <v>510.5813107720764</v>
+        <v>609.5902829233895</v>
       </c>
       <c r="AC8" t="n">
-        <v>461.8521470773591</v>
+        <v>551.411841886516</v>
       </c>
       <c r="AD8" t="n">
-        <v>373165.3617001973</v>
+        <v>445527.4284756939</v>
       </c>
       <c r="AE8" t="n">
-        <v>510581.3107720764</v>
+        <v>609590.2829233895</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.35935957818388e-06</v>
+        <v>2.310821189482316e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>461852.1470773591</v>
+        <v>551411.841886516</v>
       </c>
     </row>
     <row r="9">
@@ -10439,28 +10439,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>358.1817015281987</v>
+        <v>440.7957632644219</v>
       </c>
       <c r="AB9" t="n">
-        <v>490.0800058923144</v>
+        <v>603.1162098349905</v>
       </c>
       <c r="AC9" t="n">
-        <v>443.3074579615594</v>
+        <v>545.5556452472553</v>
       </c>
       <c r="AD9" t="n">
-        <v>358181.7015281987</v>
+        <v>440795.7632644219</v>
       </c>
       <c r="AE9" t="n">
-        <v>490080.0058923144</v>
+        <v>603116.2098349906</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.367382660712278e-06</v>
+        <v>2.324459898039736e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.93923611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>443307.4579615594</v>
+        <v>545555.6452472552</v>
       </c>
     </row>
   </sheetData>
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.3087487938907</v>
+        <v>516.6968146982559</v>
       </c>
       <c r="AB2" t="n">
-        <v>588.7674139819836</v>
+        <v>706.9673769248249</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.5762783317979</v>
+        <v>639.4954027060643</v>
       </c>
       <c r="AD2" t="n">
-        <v>430308.7487938907</v>
+        <v>516696.814698256</v>
       </c>
       <c r="AE2" t="n">
-        <v>588767.4139819837</v>
+        <v>706967.3769248249</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.221859075052274e-06</v>
+        <v>2.203301052980473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.08159722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>532576.2783317979</v>
+        <v>639495.4027060643</v>
       </c>
     </row>
     <row r="3">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.2750312414789</v>
+        <v>418.1402021307107</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.9475537363721</v>
+        <v>572.1178715990304</v>
       </c>
       <c r="AC3" t="n">
-        <v>422.3827345727797</v>
+        <v>517.5157449060941</v>
       </c>
       <c r="AD3" t="n">
-        <v>341275.0312414789</v>
+        <v>418140.2021307107</v>
       </c>
       <c r="AE3" t="n">
-        <v>466947.5537363722</v>
+        <v>572117.8715990304</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.410089974371307e-06</v>
+        <v>2.542725907401875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.66840277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>422382.7345727797</v>
+        <v>517515.7449060942</v>
       </c>
     </row>
     <row r="4">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.5847181294764</v>
+        <v>384.3645481641367</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.8509810248146</v>
+        <v>525.9045317652751</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.6855540638672</v>
+        <v>475.7129413652427</v>
       </c>
       <c r="AD4" t="n">
-        <v>307584.7181294764</v>
+        <v>384364.5481641367</v>
       </c>
       <c r="AE4" t="n">
-        <v>420850.9810248147</v>
+        <v>525904.5317652752</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.476931670329627e-06</v>
+        <v>2.663257302629814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.95659722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>380685.5540638672</v>
+        <v>475712.9413652427</v>
       </c>
     </row>
     <row r="5">
@@ -11054,28 +11054,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.5087891043556</v>
+        <v>379.288619139016</v>
       </c>
       <c r="AB5" t="n">
-        <v>413.9058709984602</v>
+        <v>518.9594217389208</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.4032755909049</v>
+        <v>469.4306628922805</v>
       </c>
       <c r="AD5" t="n">
-        <v>302508.7891043556</v>
+        <v>379288.619139016</v>
       </c>
       <c r="AE5" t="n">
-        <v>413905.8709984602</v>
+        <v>518959.4217389208</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.491414886247482e-06</v>
+        <v>2.689373968237086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>374403.2755909049</v>
+        <v>469430.6628922805</v>
       </c>
     </row>
   </sheetData>
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.6525802791405</v>
+        <v>425.8327239198551</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.8323771028753</v>
+        <v>582.6431192810475</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.08767304255</v>
+        <v>527.0364777216174</v>
       </c>
       <c r="AD2" t="n">
-        <v>342652.5802791405</v>
+        <v>425832.7239198551</v>
       </c>
       <c r="AE2" t="n">
-        <v>468832.3771028753</v>
+        <v>582643.1192810475</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.379148013759377e-06</v>
+        <v>2.573049359027923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>424087.67304255</v>
+        <v>527036.4777216174</v>
       </c>
     </row>
     <row r="3">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.3742941242458</v>
+        <v>356.1364271291306</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.6711637474241</v>
+        <v>487.2815712283713</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.6225474178617</v>
+        <v>440.7761019743152</v>
       </c>
       <c r="AD3" t="n">
-        <v>291374.2941242458</v>
+        <v>356136.4271291306</v>
       </c>
       <c r="AE3" t="n">
-        <v>398671.1637474241</v>
+        <v>487281.5712283712</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.533594561488847e-06</v>
+        <v>2.86119724937374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.00868055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>360622.5474178616</v>
+        <v>440776.1019743152</v>
       </c>
     </row>
     <row r="4">
@@ -11563,28 +11563,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.1740436056493</v>
+        <v>353.1024667468877</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.9782427508142</v>
+        <v>483.1303727845009</v>
       </c>
       <c r="AC4" t="n">
-        <v>345.5227753725066</v>
+        <v>437.0210880836844</v>
       </c>
       <c r="AD4" t="n">
-        <v>279174.0436056493</v>
+        <v>353102.4667468877</v>
       </c>
       <c r="AE4" t="n">
-        <v>381978.2427508142</v>
+        <v>483130.3727845009</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.545923770878409e-06</v>
+        <v>2.884199613152419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.88715277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>345522.7753725066</v>
+        <v>437021.0880836844</v>
       </c>
     </row>
   </sheetData>
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.2745169840774</v>
+        <v>359.009098156019</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.0616677948433</v>
+        <v>491.2120864606612</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.5484138860182</v>
+        <v>444.3314943493482</v>
       </c>
       <c r="AD2" t="n">
-        <v>287274.5169840774</v>
+        <v>359009.098156019</v>
       </c>
       <c r="AE2" t="n">
-        <v>393061.6677948433</v>
+        <v>491212.0864606611</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.506370762639563e-06</v>
+        <v>2.896806838218377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>355548.4138860182</v>
+        <v>444331.4943493482</v>
       </c>
     </row>
     <row r="3">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.1758430971126</v>
+        <v>332.9436911311126</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.6665078424449</v>
+        <v>455.5482466445839</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.3860551641635</v>
+        <v>412.0713613508038</v>
       </c>
       <c r="AD3" t="n">
-        <v>270175.8430971126</v>
+        <v>332943.6911311126</v>
       </c>
       <c r="AE3" t="n">
-        <v>369666.5078424449</v>
+        <v>455548.2466445839</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580371387493472e-06</v>
+        <v>3.039112784022589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.06944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>334386.0551641635</v>
+        <v>412071.3613508039</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.8475370569787</v>
+        <v>311.9788197117823</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.0112021121758</v>
+        <v>426.8631846638057</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.0382031738647</v>
+        <v>386.1239614257338</v>
       </c>
       <c r="AD2" t="n">
-        <v>244847.5370569787</v>
+        <v>311978.8197117823</v>
       </c>
       <c r="AE2" t="n">
-        <v>335011.2021121758</v>
+        <v>426863.1846638057</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.594628110917507e-06</v>
+        <v>3.289078859404402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.02430555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>303038.2031738647</v>
+        <v>386123.9614257338</v>
       </c>
     </row>
   </sheetData>
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.0816136117123</v>
+        <v>612.1838733135862</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.0208993068003</v>
+        <v>837.6169831140361</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.0210099694789</v>
+        <v>757.675993848451</v>
       </c>
       <c r="AD2" t="n">
-        <v>513081.6136117123</v>
+        <v>612183.8733135862</v>
       </c>
       <c r="AE2" t="n">
-        <v>702020.8993068003</v>
+        <v>837616.983114036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.090136297679616e-06</v>
+        <v>1.915326471570902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.60069444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>635021.0099694789</v>
+        <v>757675.9938484509</v>
       </c>
     </row>
     <row r="3">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.9517553058746</v>
+        <v>479.1483117213532</v>
       </c>
       <c r="AB3" t="n">
-        <v>547.2316362356474</v>
+        <v>655.5918586287868</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.0046169177418</v>
+        <v>593.0230917702071</v>
       </c>
       <c r="AD3" t="n">
-        <v>399951.7553058746</v>
+        <v>479148.3117213532</v>
       </c>
       <c r="AE3" t="n">
-        <v>547231.6362356475</v>
+        <v>655591.8586287868</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301196335620161e-06</v>
+        <v>2.286150632383398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>495004.6169177418</v>
+        <v>593023.091770207</v>
       </c>
     </row>
     <row r="4">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.6881355073309</v>
+        <v>440.7993510682378</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.8776635555125</v>
+        <v>603.1211188264541</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.6472339109368</v>
+        <v>545.5600857314632</v>
       </c>
       <c r="AD4" t="n">
-        <v>361688.1355073309</v>
+        <v>440799.3510682378</v>
       </c>
       <c r="AE4" t="n">
-        <v>494877.6635555126</v>
+        <v>603121.1188264542</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381159359442731e-06</v>
+        <v>2.426642510876223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>447647.2339109369</v>
+        <v>545560.0857314633</v>
       </c>
     </row>
     <row r="5">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>343.8256489700311</v>
+        <v>413.1973202698939</v>
       </c>
       <c r="AB5" t="n">
-        <v>470.4374214378899</v>
+        <v>565.3548025725032</v>
       </c>
       <c r="AC5" t="n">
-        <v>425.5395341989247</v>
+        <v>511.3981336954317</v>
       </c>
       <c r="AD5" t="n">
-        <v>343825.6489700311</v>
+        <v>413197.3202698939</v>
       </c>
       <c r="AE5" t="n">
-        <v>470437.4214378899</v>
+        <v>565354.8025725032</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.423356595536291e-06</v>
+        <v>2.500781390105503e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.01736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>425539.5341989247</v>
+        <v>511398.1336954318</v>
       </c>
     </row>
     <row r="6">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.6039584326034</v>
+        <v>403.8004253395308</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.1374564434437</v>
+        <v>552.4975563670345</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.7496009513158</v>
+        <v>499.7679650225546</v>
       </c>
       <c r="AD6" t="n">
-        <v>324603.9584326034</v>
+        <v>403800.4253395308</v>
       </c>
       <c r="AE6" t="n">
-        <v>444137.4564434437</v>
+        <v>552497.5563670344</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43768494524834e-06</v>
+        <v>2.525955735328047e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>401749.6009513158</v>
+        <v>499767.9650225546</v>
       </c>
     </row>
     <row r="7">
@@ -21863,28 +21863,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>323.8163828431206</v>
+        <v>403.0128497500481</v>
       </c>
       <c r="AB7" t="n">
-        <v>443.0598607765306</v>
+        <v>551.4199607001215</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.7748495024379</v>
+        <v>498.7932135736767</v>
       </c>
       <c r="AD7" t="n">
-        <v>323816.3828431205</v>
+        <v>403012.8497500481</v>
       </c>
       <c r="AE7" t="n">
-        <v>443059.8607765306</v>
+        <v>551419.9607001215</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.441870202037084e-06</v>
+        <v>2.533309066406798e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>400774.8495024379</v>
+        <v>498793.2135736767</v>
       </c>
     </row>
   </sheetData>
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>642.8113500766657</v>
+        <v>765.7355496365093</v>
       </c>
       <c r="AB2" t="n">
-        <v>879.522848010194</v>
+        <v>1047.713160880918</v>
       </c>
       <c r="AC2" t="n">
-        <v>795.5824218141704</v>
+        <v>947.7208872810991</v>
       </c>
       <c r="AD2" t="n">
-        <v>642811.3500766656</v>
+        <v>765735.5496365093</v>
       </c>
       <c r="AE2" t="n">
-        <v>879522.848010194</v>
+        <v>1047713.160880918</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.416689389886605e-07</v>
+        <v>1.61014894382826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.86631944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>795582.4218141704</v>
+        <v>947720.8872810991</v>
       </c>
     </row>
     <row r="3">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.8919831540226</v>
+        <v>567.0425519051704</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.7681621070012</v>
+        <v>775.8526356684936</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.7552006708514</v>
+        <v>701.8063490363049</v>
       </c>
       <c r="AD3" t="n">
-        <v>474891.9831540226</v>
+        <v>567042.5519051704</v>
       </c>
       <c r="AE3" t="n">
-        <v>649768.1621070012</v>
+        <v>775852.6356684936</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178930699471002e-06</v>
+        <v>2.015840113234111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.46527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>587755.2006708514</v>
+        <v>701806.349036305</v>
       </c>
     </row>
     <row r="4">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>429.2653631724422</v>
+        <v>511.2433660057461</v>
       </c>
       <c r="AB4" t="n">
-        <v>587.339807743793</v>
+        <v>699.5057278345565</v>
       </c>
       <c r="AC4" t="n">
-        <v>531.2849208293222</v>
+        <v>632.7458829324806</v>
       </c>
       <c r="AD4" t="n">
-        <v>429265.3631724422</v>
+        <v>511243.3660057461</v>
       </c>
       <c r="AE4" t="n">
-        <v>587339.807743793</v>
+        <v>699505.7278345565</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267420487152148e-06</v>
+        <v>2.167147788654951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>531284.9208293222</v>
+        <v>632745.8829324807</v>
       </c>
     </row>
     <row r="5">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>397.6535621440634</v>
+        <v>479.7168163233878</v>
       </c>
       <c r="AB5" t="n">
-        <v>544.0871469625307</v>
+        <v>656.3697117059436</v>
       </c>
       <c r="AC5" t="n">
-        <v>492.1602332875329</v>
+        <v>593.7267076414038</v>
       </c>
       <c r="AD5" t="n">
-        <v>397653.5621440634</v>
+        <v>479716.8163233878</v>
       </c>
       <c r="AE5" t="n">
-        <v>544087.1469625307</v>
+        <v>656369.7117059436</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319280721970106e-06</v>
+        <v>2.255823010764859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.60763888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>492160.2332875329</v>
+        <v>593726.7076414038</v>
       </c>
     </row>
     <row r="6">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>383.7832585508783</v>
+        <v>465.6759205296106</v>
       </c>
       <c r="AB6" t="n">
-        <v>525.1091856717271</v>
+        <v>637.1583386402931</v>
       </c>
       <c r="AC6" t="n">
-        <v>474.9935019865877</v>
+        <v>576.3488410578075</v>
       </c>
       <c r="AD6" t="n">
-        <v>383783.2585508783</v>
+        <v>465675.9205296106</v>
       </c>
       <c r="AE6" t="n">
-        <v>525109.1856717272</v>
+        <v>637158.3386402931</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347630667353207e-06</v>
+        <v>2.304298257984136e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>474993.5019865877</v>
+        <v>576348.8410578074</v>
       </c>
     </row>
     <row r="7">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>370.4544954222347</v>
+        <v>442.2599323376947</v>
       </c>
       <c r="AB7" t="n">
-        <v>506.8721839355885</v>
+        <v>605.1195505556232</v>
       </c>
       <c r="AC7" t="n">
-        <v>458.4970141003533</v>
+        <v>547.3677899412171</v>
       </c>
       <c r="AD7" t="n">
-        <v>370454.4954222348</v>
+        <v>442259.9323376947</v>
       </c>
       <c r="AE7" t="n">
-        <v>506872.1839355885</v>
+        <v>605119.5505556231</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.369812423782663e-06</v>
+        <v>2.342226589490432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>458497.0141003533</v>
+        <v>547367.7899412171</v>
       </c>
     </row>
     <row r="8">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>352.4222006799708</v>
+        <v>434.4001140047237</v>
       </c>
       <c r="AB8" t="n">
-        <v>482.1996027405244</v>
+        <v>594.3654003617397</v>
       </c>
       <c r="AC8" t="n">
-        <v>436.1791494263612</v>
+        <v>537.6400007482932</v>
       </c>
       <c r="AD8" t="n">
-        <v>352422.2006799708</v>
+        <v>434400.1140047237</v>
       </c>
       <c r="AE8" t="n">
-        <v>482199.6027405245</v>
+        <v>594365.4003617397</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377214250527038e-06</v>
+        <v>2.354882888346009e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.95659722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>436179.1494263611</v>
+        <v>537640.0007482932</v>
       </c>
     </row>
     <row r="9">
@@ -22902,28 +22902,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>351.4923037655614</v>
+        <v>433.4702170903142</v>
       </c>
       <c r="AB9" t="n">
-        <v>480.927276758073</v>
+        <v>593.0930743792882</v>
       </c>
       <c r="AC9" t="n">
-        <v>435.028252449954</v>
+        <v>536.4891037718861</v>
       </c>
       <c r="AD9" t="n">
-        <v>351492.3037655614</v>
+        <v>433470.2170903143</v>
       </c>
       <c r="AE9" t="n">
-        <v>480927.276758073</v>
+        <v>593093.0743792881</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.381959011260611e-06</v>
+        <v>2.362995900432918e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.90451388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>435028.252449954</v>
+        <v>536489.1037718861</v>
       </c>
     </row>
   </sheetData>
@@ -23199,28 +23199,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.2785669151793</v>
+        <v>310.3493309153152</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.6550032447751</v>
+        <v>424.6336462045075</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.6703853913491</v>
+        <v>384.107206987814</v>
       </c>
       <c r="AD2" t="n">
-        <v>237278.5669151793</v>
+        <v>310349.3309153153</v>
       </c>
       <c r="AE2" t="n">
-        <v>324655.0032447751</v>
+        <v>424633.6462045075</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.53912190859732e-06</v>
+        <v>3.299047154994118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.19618055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>293670.3853913491</v>
+        <v>384107.206987814</v>
       </c>
     </row>
   </sheetData>
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.2806672629233</v>
+        <v>459.5142708380458</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.4755651636934</v>
+        <v>628.7276976994947</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.4701778919517</v>
+        <v>568.7228086559199</v>
       </c>
       <c r="AD2" t="n">
-        <v>375280.6672629233</v>
+        <v>459514.2708380457</v>
       </c>
       <c r="AE2" t="n">
-        <v>513475.5651636934</v>
+        <v>628727.6976994947</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.321865709100295e-06</v>
+        <v>2.435448389484738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>464470.1778919516</v>
+        <v>568722.80865592</v>
       </c>
     </row>
     <row r="3">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.4335680811374</v>
+        <v>382.2889276811803</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.6441708604075</v>
+        <v>523.0645762505812</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.4984815712912</v>
+        <v>473.1440272189685</v>
       </c>
       <c r="AD3" t="n">
-        <v>307433.5680811374</v>
+        <v>382288.9276811803</v>
       </c>
       <c r="AE3" t="n">
-        <v>420644.1708604075</v>
+        <v>523064.5762505812</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.49248128232185e-06</v>
+        <v>2.749796072583555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.19965277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>380498.4815712912</v>
+        <v>473144.0272189685</v>
       </c>
     </row>
     <row r="4">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>286.5003739882953</v>
+        <v>361.440984934359</v>
       </c>
       <c r="AB4" t="n">
-        <v>392.0024511952356</v>
+        <v>494.5395012380586</v>
       </c>
       <c r="AC4" t="n">
-        <v>354.5902874320573</v>
+        <v>447.3413453304469</v>
       </c>
       <c r="AD4" t="n">
-        <v>286500.3739882953</v>
+        <v>361440.984934359</v>
       </c>
       <c r="AE4" t="n">
-        <v>392002.4511952356</v>
+        <v>494539.5012380586</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524618672071087e-06</v>
+        <v>2.809007045050867e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.87847222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>354590.2874320573</v>
+        <v>447341.3453304468</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.426991970247</v>
+        <v>550.4792935246991</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.3988142007821</v>
+        <v>753.1900548329446</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.1888221086632</v>
+        <v>681.3066531085689</v>
       </c>
       <c r="AD2" t="n">
-        <v>453426.991970247</v>
+        <v>550479.2935246991</v>
       </c>
       <c r="AE2" t="n">
-        <v>620398.8142007821</v>
+        <v>753190.0548329446</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176503391778072e-06</v>
+        <v>2.101737450216903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.55902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>561188.8221086632</v>
+        <v>681306.6531085689</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.0456818505239</v>
+        <v>444.2988783095021</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.5256536516689</v>
+        <v>607.9093263861977</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.901450917214</v>
+        <v>549.8913134819965</v>
       </c>
       <c r="AD3" t="n">
-        <v>357045.6818505239</v>
+        <v>444298.8783095021</v>
       </c>
       <c r="AE3" t="n">
-        <v>488525.6536516689</v>
+        <v>607909.3263861977</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.373446774237191e-06</v>
+        <v>2.453562430390697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>441901.450917214</v>
+        <v>549891.3134819964</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.9766821670202</v>
+        <v>399.9731213618879</v>
       </c>
       <c r="AB4" t="n">
-        <v>454.2251423184881</v>
+        <v>547.2608702160886</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.874532244602</v>
+        <v>495.0310608481198</v>
       </c>
       <c r="AD4" t="n">
-        <v>331976.6821670202</v>
+        <v>399973.1213618879</v>
       </c>
       <c r="AE4" t="n">
-        <v>454225.1423184881</v>
+        <v>547260.8702160886</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445819505280093e-06</v>
+        <v>2.582851032761371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>410874.532244602</v>
+        <v>495031.0608481198</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.5549788413848</v>
+        <v>388.1797519140322</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.915022769502</v>
+        <v>531.1246618507924</v>
       </c>
       <c r="AC5" t="n">
-        <v>384.36172936836</v>
+        <v>480.4348695618968</v>
       </c>
       <c r="AD5" t="n">
-        <v>310554.9788413848</v>
+        <v>388179.7519140322</v>
       </c>
       <c r="AE5" t="n">
-        <v>424915.022769502</v>
+        <v>531124.6618507925</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.470547483943692e-06</v>
+        <v>2.627025762038524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.85243055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>384361.72936836</v>
+        <v>480434.8695618968</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>310.1256255387888</v>
+        <v>387.7503986114363</v>
       </c>
       <c r="AB6" t="n">
-        <v>424.3275626391594</v>
+        <v>530.5372017204498</v>
       </c>
       <c r="AC6" t="n">
-        <v>383.8303356083518</v>
+        <v>479.9034758018886</v>
       </c>
       <c r="AD6" t="n">
-        <v>310125.6255387889</v>
+        <v>387750.3986114362</v>
       </c>
       <c r="AE6" t="n">
-        <v>424327.5626391594</v>
+        <v>530537.2017204498</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.474949718192044e-06</v>
+        <v>2.634890032255719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.80902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>383830.3356083518</v>
+        <v>479903.4758018886</v>
       </c>
     </row>
   </sheetData>
